--- a/data/trans_bre/P2A_fisi_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_fisi_R-Provincia-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.601757217462378</v>
+        <v>-3.408011576822219</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1265058894412548</v>
+        <v>0.07819664928909437</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.362104120455436</v>
+        <v>-1.564178104298268</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.640383035261256</v>
+        <v>-2.962803043321897</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7951857634496339</v>
+        <v>-0.7758112749944867</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.01783820673238686</v>
+        <v>-0.007655679280435945</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2236275247705845</v>
+        <v>-0.238429864067097</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2361946524882226</v>
+        <v>-0.2597181681961609</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.099790756010507</v>
+        <v>2.20879146143801</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.29314980379405</v>
+        <v>10.71384458741547</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.353548855597726</v>
+        <v>7.529075069132516</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.219395790857756</v>
+        <v>4.472190050352005</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.858560154913551</v>
+        <v>1.612885650143377</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.627910399941035</v>
+        <v>1.90900510401306</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.912294075735658</v>
+        <v>1.993568843354827</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.7990626270954123</v>
+        <v>0.6811592955747101</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.495919051246398</v>
+        <v>-3.356404330450216</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.795102544871555</v>
+        <v>-3.618020130982637</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.693927829674523</v>
+        <v>-1.311288410281752</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-6.417905914671632</v>
+        <v>-6.581619006511709</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3684757608340684</v>
+        <v>-0.3513376859736468</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3769566477724423</v>
+        <v>-0.3745028085816582</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3856013389208131</v>
+        <v>-0.303969727310973</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3152343376226837</v>
+        <v>-0.321201339216719</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.276875289092635</v>
+        <v>3.550573048376026</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.44037181209413</v>
+        <v>3.617604312419266</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.168347981569699</v>
+        <v>3.429138609999683</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.6357838441226</v>
+        <v>2.783895942624758</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5683583911940355</v>
+        <v>0.6087917462967599</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5453212143429494</v>
+        <v>0.5867675416616077</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.4284708989428</v>
+        <v>1.564617017288798</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1957190981695233</v>
+        <v>0.201235098494804</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.497772425342756</v>
+        <v>-1.735561784889169</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.987342401872901</v>
+        <v>-4.062525502394767</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.270591315694636</v>
+        <v>-0.2178862897556096</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.420604397482307</v>
+        <v>-5.957277734161343</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.573715912487144</v>
+        <v>-0.5904082352407873</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3953495023572036</v>
+        <v>-0.4246605588724514</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3710860497366723</v>
+        <v>-0.2184593284799285</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3873985614148048</v>
+        <v>-0.3795439079392459</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.197442206600853</v>
+        <v>3.225489577813585</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.679096070784385</v>
+        <v>4.855758490578435</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.300928997528945</v>
+        <v>4.745444761416502</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.033848623348605</v>
+        <v>2.760047784618995</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.812517562829778</v>
+        <v>2.83086323709748</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.868631725864963</v>
+        <v>0.9738975644823772</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>4.909121663459524</v>
+        <v>5.948147948485775</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3322424979960397</v>
+        <v>0.2894715570813294</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.673802749482651</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-2.071650672201353</v>
+        <v>-2.071650672201351</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.18894078097793</v>
@@ -949,7 +949,7 @@
         <v>0.3216310940442311</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.3034334846607869</v>
+        <v>-0.3034334846607867</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02867236838966698</v>
+        <v>0.1298573134460108</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.5521621229250471</v>
+        <v>-0.3580696135716963</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.941492676545966</v>
+        <v>-1.64350556953923</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-6.53164588566937</v>
+        <v>-7.002261808825207</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.05943373799824302</v>
+        <v>-0.05700571696699383</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.08075566013599114</v>
+        <v>-0.07880528800649843</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2130228012641509</v>
+        <v>-0.1823630088958567</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6363673220944005</v>
+        <v>-0.6507419185791579</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.397495629105117</v>
+        <v>5.50676490555032</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.461135149191629</v>
+        <v>7.691287305715291</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.348380484929322</v>
+        <v>7.52846080953146</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.483166596318673</v>
+        <v>1.230414692261174</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.140950898680011</v>
+        <v>3.939840451778112</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.897538609276792</v>
+        <v>1.762553859485336</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.124056191594804</v>
+        <v>1.134394949226984</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3908783118528392</v>
+        <v>0.3162040191764637</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-0.1764322872659776</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.780950630356007</v>
+        <v>1.780950630356005</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2233616664122361</v>
@@ -1049,7 +1049,7 @@
         <v>-0.02461661053788058</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2591709558804031</v>
+        <v>0.2591709558804028</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.535512730060381</v>
+        <v>-3.878077295653726</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.048460789901589</v>
+        <v>-0.9544872413719606</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.241897018563934</v>
+        <v>-5.411778766370579</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.10932821851141</v>
+        <v>-2.156936930207273</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3249902580361243</v>
+        <v>-0.3778250535267751</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.08012439089617902</v>
+        <v>-0.06544060978865134</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.5461841882862799</v>
+        <v>-0.542655229759014</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2352503608983257</v>
+        <v>-0.2389386208483086</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.858428142490501</v>
+        <v>8.031019455970977</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.04307010222954</v>
+        <v>14.0732404328323</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.683960068426512</v>
+        <v>4.986126789405815</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.404264461604527</v>
+        <v>5.539026188035361</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.137768232590197</v>
+        <v>1.46907672503746</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.451413442224447</v>
+        <v>1.402960382923286</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.029987614395695</v>
+        <v>1.026982707856021</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.145477771695401</v>
+        <v>1.153251822186918</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>0.80401496399434</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-1.49852284765663</v>
+        <v>-1.498522847656639</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>2.644978341016062</v>
@@ -1149,7 +1149,7 @@
         <v>0.09542821242125613</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.07178797129502873</v>
+        <v>-0.07178797129502913</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0365621605088742</v>
+        <v>0.0868974867624652</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4961933687961966</v>
+        <v>0.7519984319241859</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-4.524225227937963</v>
+        <v>-4.49199422499679</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-7.002859339813036</v>
+        <v>-7.329456780866932</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6509614955505169</v>
+        <v>-0.3847714717006811</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03721657613698143</v>
+        <v>0.06876036678681846</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4065280432836789</v>
+        <v>-0.4315726440250474</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2842154416854223</v>
+        <v>-0.3107440711142073</v>
       </c>
     </row>
     <row r="21">
@@ -1192,26 +1192,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.377536569490449</v>
+        <v>4.585412075980755</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>10.4113755910983</v>
+        <v>10.07280815931112</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.783359675723594</v>
+        <v>5.581510105012937</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.995431130770016</v>
+        <v>4.140754244206527</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>2.863486002084119</v>
+        <v>2.55865780341063</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9341873870237575</v>
+        <v>0.9520752857941234</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2298769554913364</v>
+        <v>0.2359666870557213</v>
       </c>
     </row>
     <row r="22">
@@ -1258,28 +1258,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.671352229991015</v>
+        <v>-2.472432862735294</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.037162324773597</v>
+        <v>-1.989754392198097</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.5743991226994775</v>
+        <v>-0.9750146880994452</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.5275875255544852</v>
+        <v>-0.2609834706167707</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.3858709636551707</v>
+        <v>-0.361638420816105</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.2479382499694072</v>
+        <v>-0.2495239747254882</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.130384561011575</v>
+        <v>-0.1846046557924878</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.04182335770146181</v>
+        <v>-0.02587913448779827</v>
       </c>
     </row>
     <row r="24">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.773993641335838</v>
+        <v>2.748326322711331</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.809726470600308</v>
+        <v>3.792162926449667</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.386343884575491</v>
+        <v>4.212761062492532</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.869748447164562</v>
+        <v>6.150397412058613</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.647138584019074</v>
+        <v>0.63540741670044</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7148448112815514</v>
+        <v>0.6824236038232746</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.486482053196117</v>
+        <v>1.388888505510685</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.5968125331553265</v>
+        <v>0.6363003129418114</v>
       </c>
     </row>
     <row r="25">
@@ -1335,7 +1335,7 @@
         <v>0.4966169212861526</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2.617024269220099</v>
+        <v>2.617024269220101</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4256117659362078</v>
@@ -1347,7 +1347,7 @@
         <v>0.07091467276998745</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.4278544642123837</v>
+        <v>0.427854464212384</v>
       </c>
     </row>
     <row r="26">
@@ -1358,28 +1358,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.1726693533409248</v>
+        <v>-0.1672075750246587</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-3.033127463638643</v>
+        <v>-2.960309329994836</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-2.075484839505933</v>
+        <v>-2.054772113290852</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2858813243367786</v>
+        <v>-0.150845767731119</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.02381172365845231</v>
+        <v>-0.03087911491010198</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3780591611264619</v>
+        <v>-0.3771074888660182</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2689960830169288</v>
+        <v>-0.2630565168280665</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.03392454554175484</v>
+        <v>-0.02198425998500318</v>
       </c>
     </row>
     <row r="27">
@@ -1390,28 +1390,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>5.536954922531654</v>
+        <v>5.55990891567629</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.020242514587777</v>
+        <v>2.604754575616142</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2.988695563438431</v>
+        <v>3.079606025339516</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5.007378991793388</v>
+        <v>4.909467082182944</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.04360016763052</v>
+        <v>1.026239305839297</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3897570036189175</v>
+        <v>0.482817142275328</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5053825371050484</v>
+        <v>0.5492311256449618</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.055357331480541</v>
+        <v>0.9560750139786831</v>
       </c>
     </row>
     <row r="28">
@@ -1435,7 +1435,7 @@
         <v>1.350781388306628</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.5770428705190456</v>
+        <v>0.5770428705190483</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2536068235289765</v>
@@ -1447,7 +1447,7 @@
         <v>0.2432449208828328</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.05313227085584698</v>
+        <v>0.05313227085584725</v>
       </c>
     </row>
     <row r="29">
@@ -1458,28 +1458,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2452842964671383</v>
+        <v>0.1278361607659346</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.4162275340094144</v>
+        <v>0.3478801954477203</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2135802709215586</v>
+        <v>0.2606029501800697</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.6998997351510647</v>
+        <v>-0.8276765229555703</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.0459820838714304</v>
+        <v>0.006619817292416587</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04074360947408762</v>
+        <v>0.04417034066355812</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03032504030621002</v>
+        <v>0.04495292756807556</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.06111612518338385</v>
+        <v>-0.07260153199895068</v>
       </c>
     </row>
     <row r="30">
@@ -1490,28 +1490,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.462723225475883</v>
+        <v>2.364663929729412</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.12178323716568</v>
+        <v>3.085307461858394</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.597203051472694</v>
+        <v>2.643563862729976</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.894607058781073</v>
+        <v>2.035631393041496</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.5602440546645797</v>
+        <v>0.5251819407486161</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4585139298409908</v>
+        <v>0.4730331282402401</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5095752603829646</v>
+        <v>0.536566272794891</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.1878073398636191</v>
+        <v>0.2018657476024575</v>
       </c>
     </row>
     <row r="31">
